--- a/Code/Results/Cases/Case_3_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.018544913396624</v>
+        <v>0.3759955672705644</v>
       </c>
       <c r="C2">
-        <v>0.1859505016486622</v>
+        <v>0.05892570557490728</v>
       </c>
       <c r="D2">
-        <v>0.3817368590601689</v>
+        <v>0.3019038439208259</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7923996027589624</v>
+        <v>1.435412107694724</v>
       </c>
       <c r="G2">
-        <v>0.0008117273921302083</v>
+        <v>0.00245950757720754</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2931076233347589</v>
+        <v>0.6733453806067367</v>
       </c>
       <c r="J2">
-        <v>0.4331931030864382</v>
+        <v>0.3500415298297384</v>
       </c>
       <c r="K2">
-        <v>1.148790187093368</v>
+        <v>0.4073226755704411</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.554780673281712</v>
+        <v>3.24403693567946</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8863795785503612</v>
+        <v>0.3357964107202918</v>
       </c>
       <c r="C3">
-        <v>0.1623905899215856</v>
+        <v>0.05171371804611624</v>
       </c>
       <c r="D3">
-        <v>0.335187344250798</v>
+        <v>0.2903279750729126</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7615113334060055</v>
+        <v>1.438838889608803</v>
       </c>
       <c r="G3">
-        <v>0.0008155479402165037</v>
+        <v>0.002461975659394211</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3015900582109232</v>
+        <v>0.6809936148411602</v>
       </c>
       <c r="J3">
-        <v>0.382788214718957</v>
+        <v>0.3387173486612767</v>
       </c>
       <c r="K3">
-        <v>1.000308610782326</v>
+        <v>0.3620647754082427</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.548136144687774</v>
+        <v>3.269168133293618</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.80530819421773</v>
+        <v>0.31111549967261</v>
       </c>
       <c r="C4">
-        <v>0.147940014010544</v>
+        <v>0.04727583534052826</v>
       </c>
       <c r="D4">
-        <v>0.3068571585069435</v>
+        <v>0.2833466330215799</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.744158236274842</v>
+        <v>1.441765087337522</v>
       </c>
       <c r="G4">
-        <v>0.0008179693235414562</v>
+        <v>0.002463571694942387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3075424082053715</v>
+        <v>0.6860660211097596</v>
       </c>
       <c r="J4">
-        <v>0.3523540982484548</v>
+        <v>0.3319685340679683</v>
       </c>
       <c r="K4">
-        <v>0.9092270542763004</v>
+        <v>0.334262452320246</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.547789884885702</v>
+        <v>3.286474590845188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7722797721114603</v>
+        <v>0.3010588307464559</v>
       </c>
       <c r="C5">
-        <v>0.1420527981624673</v>
+        <v>0.04546500888464777</v>
       </c>
       <c r="D5">
-        <v>0.2953689890595541</v>
+        <v>0.2805335761227212</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7374717830405757</v>
+        <v>1.443164246531055</v>
       </c>
       <c r="G5">
-        <v>0.0008189754149244749</v>
+        <v>0.002464242425721116</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3101480517906445</v>
+        <v>0.6882276527512587</v>
       </c>
       <c r="J5">
-        <v>0.3400696543467916</v>
+        <v>0.3292696841089509</v>
       </c>
       <c r="K5">
-        <v>0.8721196054983977</v>
+        <v>0.3229299683888485</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.548545989613274</v>
+        <v>3.293998566925865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7667956534326379</v>
+        <v>0.2993890073194336</v>
       </c>
       <c r="C6">
-        <v>0.1410752562167517</v>
+        <v>0.04516418289485102</v>
       </c>
       <c r="D6">
-        <v>0.2934646200990443</v>
+        <v>0.2800684007952583</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7363841835566305</v>
+        <v>1.443409059936535</v>
       </c>
       <c r="G6">
-        <v>0.000819143655094741</v>
+        <v>0.002464355029945451</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3105913881611642</v>
+        <v>0.688592301160984</v>
       </c>
       <c r="J6">
-        <v>0.3380366102819892</v>
+        <v>0.328824642762271</v>
       </c>
       <c r="K6">
-        <v>0.8659581283500017</v>
+        <v>0.3210480676326313</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.54872455171332</v>
+        <v>3.295276385338951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8048627396284758</v>
+        <v>0.3109798670386681</v>
       </c>
       <c r="C7">
-        <v>0.1478606138230845</v>
+        <v>0.04725142331700738</v>
       </c>
       <c r="D7">
-        <v>0.3067020042928306</v>
+        <v>0.2833085658175349</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7440665274656766</v>
+        <v>1.441783119960981</v>
       </c>
       <c r="G7">
-        <v>0.0008179828131942846</v>
+        <v>0.002463580658138041</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3075768290906034</v>
+        <v>0.6860947907317403</v>
       </c>
       <c r="J7">
-        <v>0.3521879643864736</v>
+        <v>0.3319319285586033</v>
       </c>
       <c r="K7">
-        <v>0.9087265900321029</v>
+        <v>0.3341096289905749</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.547796502699427</v>
+        <v>3.286574153230575</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9729511370430544</v>
+        <v>0.3621349367290065</v>
       </c>
       <c r="C8">
-        <v>0.1778224076928296</v>
+        <v>0.05644107231395878</v>
       </c>
       <c r="D8">
-        <v>0.3656303061737276</v>
+        <v>0.2978863532768798</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7814020691467007</v>
+        <v>1.436423009504907</v>
       </c>
       <c r="G8">
-        <v>0.0008130292585230174</v>
+        <v>0.002460341875055765</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2958735511112458</v>
+        <v>0.6759043464190491</v>
       </c>
       <c r="J8">
-        <v>0.4156994102232261</v>
+        <v>0.3460945374036157</v>
       </c>
       <c r="K8">
-        <v>1.097567755399695</v>
+        <v>0.3917209922906011</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.551689050478657</v>
+        <v>3.252312709341851</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3037401403638</v>
+        <v>0.4624399332225835</v>
       </c>
       <c r="C9">
-        <v>0.2368146417880013</v>
+        <v>0.07438221404683532</v>
       </c>
       <c r="D9">
-        <v>0.4835050167248767</v>
+        <v>0.3274709397742583</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8683871664301677</v>
+        <v>1.432437807328967</v>
       </c>
       <c r="G9">
-        <v>0.0008038975885819588</v>
+        <v>0.002454627583894626</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2791647000364783</v>
+        <v>0.658909520691914</v>
       </c>
       <c r="J9">
-        <v>0.5448957562128243</v>
+        <v>0.3754910454439653</v>
       </c>
       <c r="K9">
-        <v>1.469207192921772</v>
+        <v>0.504564069006932</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.590931889940578</v>
+        <v>3.20002149152333</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.548315219177312</v>
+        <v>0.5361056119848513</v>
       </c>
       <c r="C10">
-        <v>0.2804779898139032</v>
+        <v>0.08751246984505201</v>
       </c>
       <c r="D10">
-        <v>0.5720039011120832</v>
+        <v>0.3498114528719327</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9421377824272241</v>
+        <v>1.433494216346944</v>
       </c>
       <c r="G10">
-        <v>0.0007975180105578051</v>
+        <v>0.002450813733682289</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2711895297908065</v>
+        <v>0.648248533455142</v>
       </c>
       <c r="J10">
-        <v>0.6435000199331853</v>
+        <v>0.3980851130358332</v>
       </c>
       <c r="K10">
-        <v>1.744027037781251</v>
+        <v>0.5873660660144253</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.641968725653015</v>
+        <v>3.170701887096897</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.660115344625751</v>
+        <v>0.5696076171546736</v>
       </c>
       <c r="C11">
-        <v>0.3004545371269103</v>
+        <v>0.09347422378854731</v>
       </c>
       <c r="D11">
-        <v>0.6127923328849363</v>
+        <v>0.3601054679795368</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9781721867164919</v>
+        <v>1.434841397810573</v>
       </c>
       <c r="G11">
-        <v>0.0007946813072565909</v>
+        <v>0.00244916136939555</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2686134170595373</v>
+        <v>0.6437955720218582</v>
       </c>
       <c r="J11">
-        <v>0.6893616123468291</v>
+        <v>0.4085816897083987</v>
       </c>
       <c r="K11">
-        <v>1.869670254647957</v>
+        <v>0.6250079711611249</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.670709243133388</v>
+        <v>3.159343418386214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.702546719415295</v>
+        <v>0.5822921589015664</v>
       </c>
       <c r="C12">
-        <v>0.3080393444108438</v>
+        <v>0.09573009884158523</v>
       </c>
       <c r="D12">
-        <v>0.6283243479045666</v>
+        <v>0.3640223053939735</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9922058866625889</v>
+        <v>1.435476235604568</v>
       </c>
       <c r="G12">
-        <v>0.0007936160000989683</v>
+        <v>0.002448547474309909</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2677998222011695</v>
+        <v>0.6421664718513327</v>
       </c>
       <c r="J12">
-        <v>0.7068911598466485</v>
+        <v>0.4125879461750799</v>
       </c>
       <c r="K12">
-        <v>1.917358818635194</v>
+        <v>0.6392578211799105</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.682449978671002</v>
+        <v>3.155327180454208</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.693403845937951</v>
+        <v>0.5795604127167451</v>
       </c>
       <c r="C13">
-        <v>0.3064048624364375</v>
+        <v>0.09524433337426785</v>
       </c>
       <c r="D13">
-        <v>0.6249752417835168</v>
+        <v>0.363177914301275</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9891656932610431</v>
+        <v>1.435333965205558</v>
       </c>
       <c r="G13">
-        <v>0.0007938450461728504</v>
+        <v>0.002448679162723745</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2679676646011799</v>
+        <v>0.6425147850824686</v>
       </c>
       <c r="J13">
-        <v>0.7031083160361788</v>
+        <v>0.4117237289343336</v>
       </c>
       <c r="K13">
-        <v>1.907082993700016</v>
+        <v>0.6361890644939479</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.67988221733097</v>
+        <v>3.156179469318801</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663604190200942</v>
+        <v>0.570651224718091</v>
       </c>
       <c r="C14">
-        <v>0.3010781179110325</v>
+        <v>0.09365985081814188</v>
       </c>
       <c r="D14">
-        <v>0.6140683703140439</v>
+        <v>0.3604273342849922</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9793187810613233</v>
+        <v>1.434891126931319</v>
       </c>
       <c r="G14">
-        <v>0.0007945934886914998</v>
+        <v>0.002449110627316997</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2685431730525849</v>
+        <v>0.6436603993254089</v>
       </c>
       <c r="J14">
-        <v>0.690800408136937</v>
+        <v>0.4089106567980849</v>
       </c>
       <c r="K14">
-        <v>1.873591291715968</v>
+        <v>0.6261804055699258</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.671657600631477</v>
+        <v>3.159007286804695</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.645363958137409</v>
+        <v>0.5651938174713393</v>
       </c>
       <c r="C15">
-        <v>0.2978180702165218</v>
+        <v>0.09268908385993768</v>
       </c>
       <c r="D15">
-        <v>0.607399152018445</v>
+        <v>0.3587449577085806</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9733387824403223</v>
+        <v>1.434636116043777</v>
       </c>
       <c r="G15">
-        <v>0.0007950530733533139</v>
+        <v>0.002449376449313753</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2689171056763584</v>
+        <v>0.6443695648915977</v>
       </c>
       <c r="J15">
-        <v>0.6832832162957487</v>
+        <v>0.4071916627307104</v>
       </c>
       <c r="K15">
-        <v>1.853091634367445</v>
+        <v>0.6200492291179955</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.666733385260585</v>
+        <v>3.160776528715758</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.541021158074074</v>
+        <v>0.5339159416627695</v>
       </c>
       <c r="C16">
-        <v>0.2791750801387138</v>
+        <v>0.08712262065571963</v>
       </c>
       <c r="D16">
-        <v>0.5693497915691239</v>
+        <v>0.3491413421390632</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.939835443649585</v>
+        <v>1.433423619488096</v>
       </c>
       <c r="G16">
-        <v>0.0007977046686997812</v>
+        <v>0.002450923376355059</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2713799451848224</v>
+        <v>0.6485475362591266</v>
       </c>
       <c r="J16">
-        <v>0.640524615431346</v>
+        <v>0.3974035341576752</v>
       </c>
       <c r="K16">
-        <v>1.73583024653604</v>
+        <v>0.584905512570856</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.64020689788677</v>
+        <v>3.17148404692432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.477160790097798</v>
+        <v>0.5147252302097343</v>
       </c>
       <c r="C17">
-        <v>0.2677699442442929</v>
+        <v>0.08370482496144405</v>
       </c>
       <c r="D17">
-        <v>0.5461504167170972</v>
+        <v>0.3432833329967764</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9199399644208057</v>
+        <v>1.432901804009219</v>
       </c>
       <c r="G17">
-        <v>0.0007993477319466221</v>
+        <v>0.002451893476368994</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2731675714343957</v>
+        <v>0.6512122696955096</v>
       </c>
       <c r="J17">
-        <v>0.6145637004958786</v>
+        <v>0.3914547931897516</v>
       </c>
       <c r="K17">
-        <v>1.664068428646317</v>
+        <v>0.5633390376632121</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.625391897457234</v>
+        <v>3.178559935122394</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.440479875103819</v>
+        <v>0.5036864440430122</v>
       </c>
       <c r="C18">
-        <v>0.261220487492281</v>
+        <v>0.08173794439279902</v>
       </c>
       <c r="D18">
-        <v>0.5328559709737419</v>
+        <v>0.3399263195322817</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9087285170116246</v>
+        <v>1.432683235299635</v>
       </c>
       <c r="G18">
-        <v>0.0008002989668615035</v>
+        <v>0.002452459227979203</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2742940875732209</v>
+        <v>0.6527822952215487</v>
       </c>
       <c r="J18">
-        <v>0.5997251962892847</v>
+        <v>0.3880537923747767</v>
       </c>
       <c r="K18">
-        <v>1.622850580415928</v>
+        <v>0.5509322476375473</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.6173865701046</v>
+        <v>3.182816065517869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.428068412054728</v>
+        <v>0.499948784179054</v>
       </c>
       <c r="C19">
-        <v>0.2590046440340217</v>
+        <v>0.08107181405721064</v>
       </c>
       <c r="D19">
-        <v>0.5283628575422199</v>
+        <v>0.3387918195898578</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.904971438047923</v>
+        <v>1.432623238512704</v>
       </c>
       <c r="G19">
-        <v>0.0008006221166010775</v>
+        <v>0.002452652118731612</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2746920804728994</v>
+        <v>0.6533202897433874</v>
       </c>
       <c r="J19">
-        <v>0.5947166685304381</v>
+        <v>0.3869058020545566</v>
       </c>
       <c r="K19">
-        <v>1.608904238810766</v>
+        <v>0.546731144166074</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.614762858719786</v>
+        <v>3.184289098465399</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.483953552607744</v>
+        <v>0.5167682014573813</v>
       </c>
       <c r="C20">
-        <v>0.268982930070905</v>
+        <v>0.08406876499142868</v>
       </c>
       <c r="D20">
-        <v>0.5486148646319009</v>
+        <v>0.3439056501011919</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9220336539580103</v>
+        <v>1.432948909889035</v>
       </c>
       <c r="G20">
-        <v>0.0007991721882219936</v>
+        <v>0.002451789403235763</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2729670248715941</v>
+        <v>0.6509247389752204</v>
       </c>
       <c r="J20">
-        <v>0.6173174778764405</v>
+        <v>0.3920859190225485</v>
       </c>
       <c r="K20">
-        <v>1.671701489093806</v>
+        <v>0.5656350714029372</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.626915147125175</v>
+        <v>3.177787414184934</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.672354346821578</v>
+        <v>0.573268127131854</v>
       </c>
       <c r="C21">
-        <v>0.3026421343454331</v>
+        <v>0.09412529894007093</v>
       </c>
       <c r="D21">
-        <v>0.6172695555309531</v>
+        <v>0.3612347395213646</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9822002627721247</v>
+        <v>1.435017814668441</v>
       </c>
       <c r="G21">
-        <v>0.0007943734159124511</v>
+        <v>0.002448983575443187</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2683696488243221</v>
+        <v>0.6433223532289105</v>
       </c>
       <c r="J21">
-        <v>0.6944109705456043</v>
+        <v>0.4097360710833584</v>
       </c>
       <c r="K21">
-        <v>1.883425456967359</v>
+        <v>0.6291203142452559</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.674049576651697</v>
+        <v>3.1581689514083</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.796048410477255</v>
+        <v>0.6101824781230221</v>
       </c>
       <c r="C22">
-        <v>0.3247596301371516</v>
+        <v>0.1006878053906632</v>
       </c>
       <c r="D22">
-        <v>0.6626477815915734</v>
+        <v>0.3726693305326023</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.02380171393672</v>
+        <v>1.437096781423719</v>
       </c>
       <c r="G22">
-        <v>0.0007912886996811602</v>
+        <v>0.002447218672056063</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2663143323420805</v>
+        <v>0.638686847405765</v>
       </c>
       <c r="J22">
-        <v>0.7457541483905317</v>
+        <v>0.4214546775760226</v>
       </c>
       <c r="K22">
-        <v>2.022452195029189</v>
+        <v>0.6705860692972578</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.709884505676513</v>
+        <v>3.147008330825315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.729972981494001</v>
+        <v>0.5904818756000907</v>
       </c>
       <c r="C23">
-        <v>0.3129428719544762</v>
+        <v>0.09718621922451121</v>
       </c>
       <c r="D23">
-        <v>0.6383784953533223</v>
+        <v>0.3665565473622507</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.001378864788293</v>
+        <v>1.435920670518428</v>
       </c>
       <c r="G23">
-        <v>0.0007929305319466764</v>
+        <v>0.002448154350818158</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2673206976451681</v>
+        <v>0.6411303983731678</v>
       </c>
       <c r="J23">
-        <v>0.7182573026796746</v>
+        <v>0.4151834657880329</v>
       </c>
       <c r="K23">
-        <v>1.948184186928728</v>
+        <v>0.6484575836000204</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.690276423976769</v>
+        <v>3.152812845360245</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.480882442359473</v>
+        <v>0.5158445921435941</v>
       </c>
       <c r="C24">
-        <v>0.2684345160733699</v>
+        <v>0.08390423375379896</v>
       </c>
       <c r="D24">
-        <v>0.5475005539780682</v>
+        <v>0.3436242667814042</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9210863930203885</v>
+        <v>1.432927359674835</v>
       </c>
       <c r="G24">
-        <v>0.0007992515309122684</v>
+        <v>0.00245183642965313</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2730573850740754</v>
+        <v>0.6510546131426658</v>
       </c>
       <c r="J24">
-        <v>0.6160722261994067</v>
+        <v>0.3918005278254952</v>
       </c>
       <c r="K24">
-        <v>1.668250462564941</v>
+        <v>0.5645970592175615</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.626224895852801</v>
+        <v>3.178136084975591</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.214045575490047</v>
+        <v>0.4353081599592485</v>
       </c>
       <c r="C25">
-        <v>0.2208128093686668</v>
+        <v>0.06953745554552881</v>
       </c>
       <c r="D25">
-        <v>0.4513207941276676</v>
+        <v>0.3193610822422386</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8432375439433883</v>
+        <v>1.432816646127776</v>
       </c>
       <c r="G25">
-        <v>0.0008063081588948947</v>
+        <v>0.002456105661860402</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2829674661560908</v>
+        <v>0.663186792600321</v>
       </c>
       <c r="J25">
-        <v>0.5093628182379888</v>
+        <v>0.3673639994935485</v>
       </c>
       <c r="K25">
-        <v>1.368431392637632</v>
+        <v>0.4740536121243508</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.576640424532286</v>
+        <v>3.212571124365951</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3759955672705644</v>
+        <v>1.018544913396624</v>
       </c>
       <c r="C2">
-        <v>0.05892570557490728</v>
+        <v>0.1859505016486906</v>
       </c>
       <c r="D2">
-        <v>0.3019038439208259</v>
+        <v>0.3817368590601689</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.435412107694724</v>
+        <v>0.7923996027589837</v>
       </c>
       <c r="G2">
-        <v>0.00245950757720754</v>
+        <v>0.0008117273920720878</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6733453806067367</v>
+        <v>0.2931076233347589</v>
       </c>
       <c r="J2">
-        <v>0.3500415298297384</v>
+        <v>0.4331931030863956</v>
       </c>
       <c r="K2">
-        <v>0.4073226755704411</v>
+        <v>1.148790187093482</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.24403693567946</v>
+        <v>1.554780673281826</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3357964107202918</v>
+        <v>0.8863795785501054</v>
       </c>
       <c r="C3">
-        <v>0.05171371804611624</v>
+        <v>0.1623905899215998</v>
       </c>
       <c r="D3">
-        <v>0.2903279750729126</v>
+        <v>0.335187344250798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.438838889608803</v>
+        <v>0.7615113334059984</v>
       </c>
       <c r="G3">
-        <v>0.002461975659394211</v>
+        <v>0.0008155479402175032</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6809936148411602</v>
+        <v>0.3015900582109055</v>
       </c>
       <c r="J3">
-        <v>0.3387173486612767</v>
+        <v>0.3827882147188859</v>
       </c>
       <c r="K3">
-        <v>0.3620647754082427</v>
+        <v>1.000308610782298</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.269168133293618</v>
+        <v>1.548136144687689</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.31111549967261</v>
+        <v>0.8053081942176732</v>
       </c>
       <c r="C4">
-        <v>0.04727583534052826</v>
+        <v>0.1479400140107714</v>
       </c>
       <c r="D4">
-        <v>0.2833466330215799</v>
+        <v>0.3068571585069719</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.441765087337522</v>
+        <v>0.7441582362748917</v>
       </c>
       <c r="G4">
-        <v>0.002463571694942387</v>
+        <v>0.0008179693235990401</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6860660211097596</v>
+        <v>0.3075424082053715</v>
       </c>
       <c r="J4">
-        <v>0.3319685340679683</v>
+        <v>0.3523540982484974</v>
       </c>
       <c r="K4">
-        <v>0.334262452320246</v>
+        <v>0.9092270542763288</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.286474590845188</v>
+        <v>1.547789884885788</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3010588307464559</v>
+        <v>0.7722797721114603</v>
       </c>
       <c r="C5">
-        <v>0.04546500888464777</v>
+        <v>0.1420527981624531</v>
       </c>
       <c r="D5">
-        <v>0.2805335761227212</v>
+        <v>0.295368989059682</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.443164246531055</v>
+        <v>0.7374717830405686</v>
       </c>
       <c r="G5">
-        <v>0.002464242425721116</v>
+        <v>0.0008189754149226834</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6882276527512587</v>
+        <v>0.3101480517906374</v>
       </c>
       <c r="J5">
-        <v>0.3292696841089509</v>
+        <v>0.3400696543467774</v>
       </c>
       <c r="K5">
-        <v>0.3229299683888485</v>
+        <v>0.8721196054984262</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.293998566925865</v>
+        <v>1.548545989613302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2993890073194336</v>
+        <v>0.7667956534325526</v>
       </c>
       <c r="C6">
-        <v>0.04516418289485102</v>
+        <v>0.141075256216979</v>
       </c>
       <c r="D6">
-        <v>0.2800684007952583</v>
+        <v>0.2934646200989874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.443409059936535</v>
+        <v>0.7363841835566092</v>
       </c>
       <c r="G6">
-        <v>0.002464355029945451</v>
+        <v>0.000819143655114231</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.688592301160984</v>
+        <v>0.3105913881611535</v>
       </c>
       <c r="J6">
-        <v>0.328824642762271</v>
+        <v>0.3380366102820744</v>
       </c>
       <c r="K6">
-        <v>0.3210480676326313</v>
+        <v>0.8659581283500302</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.295276385338951</v>
+        <v>1.548724551713292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3109798670386681</v>
+        <v>0.804862739628561</v>
       </c>
       <c r="C7">
-        <v>0.04725142331700738</v>
+        <v>0.1478606138230134</v>
       </c>
       <c r="D7">
-        <v>0.2833085658175349</v>
+        <v>0.3067020042928732</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.441783119960981</v>
+        <v>0.7440665274656766</v>
       </c>
       <c r="G7">
-        <v>0.002463580658138041</v>
+        <v>0.0008179828132117151</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6860947907317403</v>
+        <v>0.3075768290906069</v>
       </c>
       <c r="J7">
-        <v>0.3319319285586033</v>
+        <v>0.3521879643863457</v>
       </c>
       <c r="K7">
-        <v>0.3341096289905749</v>
+        <v>0.908726590032046</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.286574153230575</v>
+        <v>1.547796502699484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3621349367290065</v>
+        <v>0.9729511370429975</v>
       </c>
       <c r="C8">
-        <v>0.05644107231395878</v>
+        <v>0.1778224076926023</v>
       </c>
       <c r="D8">
-        <v>0.2978863532768798</v>
+        <v>0.365630306173756</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.436423009504907</v>
+        <v>0.7814020691466794</v>
       </c>
       <c r="G8">
-        <v>0.002460341875055765</v>
+        <v>0.0008130292584653055</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6759043464190491</v>
+        <v>0.295873551111228</v>
       </c>
       <c r="J8">
-        <v>0.3460945374036157</v>
+        <v>0.4156994102231124</v>
       </c>
       <c r="K8">
-        <v>0.3917209922906011</v>
+        <v>1.097567755399695</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.252312709341851</v>
+        <v>1.551689050478629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4624399332225835</v>
+        <v>1.303740140363658</v>
       </c>
       <c r="C9">
-        <v>0.07438221404683532</v>
+        <v>0.2368146417883139</v>
       </c>
       <c r="D9">
-        <v>0.3274709397742583</v>
+        <v>0.4835050167246777</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.432437807328967</v>
+        <v>0.8683871664301677</v>
       </c>
       <c r="G9">
-        <v>0.002454627583894626</v>
+        <v>0.0008038975885822131</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.658909520691914</v>
+        <v>0.2791647000364748</v>
       </c>
       <c r="J9">
-        <v>0.3754910454439653</v>
+        <v>0.5448957562126537</v>
       </c>
       <c r="K9">
-        <v>0.504564069006932</v>
+        <v>1.469207192921772</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.20002149152333</v>
+        <v>1.590931889940549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5361056119848513</v>
+        <v>1.548315219177312</v>
       </c>
       <c r="C10">
-        <v>0.08751246984505201</v>
+        <v>0.2804779898144716</v>
       </c>
       <c r="D10">
-        <v>0.3498114528719327</v>
+        <v>0.5720039011120548</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.433494216346944</v>
+        <v>0.9421377824272241</v>
       </c>
       <c r="G10">
-        <v>0.002450813733682289</v>
+        <v>0.0007975180105921164</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.648248533455142</v>
+        <v>0.2711895297908065</v>
       </c>
       <c r="J10">
-        <v>0.3980851130358332</v>
+        <v>0.643500019933299</v>
       </c>
       <c r="K10">
-        <v>0.5873660660144253</v>
+        <v>1.744027037781336</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.170701887096897</v>
+        <v>1.641968725653129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5696076171546736</v>
+        <v>1.660115344626007</v>
       </c>
       <c r="C11">
-        <v>0.09347422378854731</v>
+        <v>0.3004545371271945</v>
       </c>
       <c r="D11">
-        <v>0.3601054679795368</v>
+        <v>0.6127923328847658</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.434841397810573</v>
+        <v>0.9781721867165061</v>
       </c>
       <c r="G11">
-        <v>0.00244916136939555</v>
+        <v>0.0007946813072563707</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6437955720218582</v>
+        <v>0.268613417059548</v>
       </c>
       <c r="J11">
-        <v>0.4085816897083987</v>
+        <v>0.6893616123468576</v>
       </c>
       <c r="K11">
-        <v>0.6250079711611249</v>
+        <v>1.869670254647957</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.159343418386214</v>
+        <v>1.670709243133388</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5822921589015664</v>
+        <v>1.702546719415295</v>
       </c>
       <c r="C12">
-        <v>0.09573009884158523</v>
+        <v>0.3080393444107585</v>
       </c>
       <c r="D12">
-        <v>0.3640223053939735</v>
+        <v>0.6283243479046234</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.435476235604568</v>
+        <v>0.9922058866625889</v>
       </c>
       <c r="G12">
-        <v>0.002448547474309909</v>
+        <v>0.0007936160001528166</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6421664718513327</v>
+        <v>0.2677998222011659</v>
       </c>
       <c r="J12">
-        <v>0.4125879461750799</v>
+        <v>0.7068911598467622</v>
       </c>
       <c r="K12">
-        <v>0.6392578211799105</v>
+        <v>1.917358818635137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.155327180454208</v>
+        <v>1.682449978670888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5795604127167451</v>
+        <v>1.693403845937951</v>
       </c>
       <c r="C13">
-        <v>0.09524433337426785</v>
+        <v>0.3064048624365228</v>
       </c>
       <c r="D13">
-        <v>0.363177914301275</v>
+        <v>0.6249752417836874</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.435333965205558</v>
+        <v>0.9891656932610289</v>
       </c>
       <c r="G13">
-        <v>0.002448679162723745</v>
+        <v>0.0007938450461957332</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6425147850824686</v>
+        <v>0.2679676646011764</v>
       </c>
       <c r="J13">
-        <v>0.4117237289343336</v>
+        <v>0.7031083160361646</v>
       </c>
       <c r="K13">
-        <v>0.6361890644939479</v>
+        <v>1.907082993699845</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.156179469318801</v>
+        <v>1.679882217330942</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.570651224718091</v>
+        <v>1.663604190200857</v>
       </c>
       <c r="C14">
-        <v>0.09365985081814188</v>
+        <v>0.301078117911004</v>
       </c>
       <c r="D14">
-        <v>0.3604273342849922</v>
+        <v>0.6140683703141576</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.434891126931319</v>
+        <v>0.9793187810613375</v>
       </c>
       <c r="G14">
-        <v>0.002449110627316997</v>
+        <v>0.0007945934886896415</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6436603993254089</v>
+        <v>0.2685431730525814</v>
       </c>
       <c r="J14">
-        <v>0.4089106567980849</v>
+        <v>0.6908004081368517</v>
       </c>
       <c r="K14">
-        <v>0.6261804055699258</v>
+        <v>1.873591291716053</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.159007286804695</v>
+        <v>1.671657600631619</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5651938174713393</v>
+        <v>1.645363958137438</v>
       </c>
       <c r="C15">
-        <v>0.09268908385993768</v>
+        <v>0.2978180702165218</v>
       </c>
       <c r="D15">
-        <v>0.3587449577085806</v>
+        <v>0.6073991520185587</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.434636116043777</v>
+        <v>0.9733387824403366</v>
       </c>
       <c r="G15">
-        <v>0.002449376449313753</v>
+        <v>0.0007950530733744952</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6443695648915977</v>
+        <v>0.2689171056763549</v>
       </c>
       <c r="J15">
-        <v>0.4071916627307104</v>
+        <v>0.6832832162957629</v>
       </c>
       <c r="K15">
-        <v>0.6200492291179955</v>
+        <v>1.853091634367587</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.160776528715758</v>
+        <v>1.666733385260642</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5339159416627695</v>
+        <v>1.541021158074074</v>
       </c>
       <c r="C16">
-        <v>0.08712262065571963</v>
+        <v>0.279175080138657</v>
       </c>
       <c r="D16">
-        <v>0.3491413421390632</v>
+        <v>0.5693497915692092</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.433423619488096</v>
+        <v>0.9398354436495993</v>
       </c>
       <c r="G16">
-        <v>0.002450923376355059</v>
+        <v>0.0007977046686413716</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6485475362591266</v>
+        <v>0.2713799451848367</v>
       </c>
       <c r="J16">
-        <v>0.3974035341576752</v>
+        <v>0.6405246154314028</v>
       </c>
       <c r="K16">
-        <v>0.584905512570856</v>
+        <v>1.73583024653604</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.17148404692432</v>
+        <v>1.64020689788677</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5147252302097343</v>
+        <v>1.477160790097884</v>
       </c>
       <c r="C17">
-        <v>0.08370482496144405</v>
+        <v>0.2677699442445487</v>
       </c>
       <c r="D17">
-        <v>0.3432833329967764</v>
+        <v>0.546150416716813</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.432901804009219</v>
+        <v>0.9199399644207915</v>
       </c>
       <c r="G17">
-        <v>0.002451893476368994</v>
+        <v>0.0007993477319457791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6512122696955096</v>
+        <v>0.2731675714343957</v>
       </c>
       <c r="J17">
-        <v>0.3914547931897516</v>
+        <v>0.614563700495836</v>
       </c>
       <c r="K17">
-        <v>0.5633390376632121</v>
+        <v>1.664068428646317</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.178559935122394</v>
+        <v>1.625391897457177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5036864440430122</v>
+        <v>1.440479875103989</v>
       </c>
       <c r="C18">
-        <v>0.08173794439279902</v>
+        <v>0.2612204874925084</v>
       </c>
       <c r="D18">
-        <v>0.3399263195322817</v>
+        <v>0.5328559709736282</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.432683235299635</v>
+        <v>0.9087285170116246</v>
       </c>
       <c r="G18">
-        <v>0.002452459227979203</v>
+        <v>0.0008002989668610746</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6527822952215487</v>
+        <v>0.2742940875732387</v>
       </c>
       <c r="J18">
-        <v>0.3880537923747767</v>
+        <v>0.5997251962893557</v>
       </c>
       <c r="K18">
-        <v>0.5509322476375473</v>
+        <v>1.622850580416042</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.182816065517869</v>
+        <v>1.6173865701046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.499948784179054</v>
+        <v>1.428068412054756</v>
       </c>
       <c r="C19">
-        <v>0.08107181405721064</v>
+        <v>0.2590046440336806</v>
       </c>
       <c r="D19">
-        <v>0.3387918195898578</v>
+        <v>0.5283628575422483</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.432623238512704</v>
+        <v>0.904971438047923</v>
       </c>
       <c r="G19">
-        <v>0.002452652118731612</v>
+        <v>0.0008006221165193849</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6533202897433874</v>
+        <v>0.2746920804728958</v>
       </c>
       <c r="J19">
-        <v>0.3869058020545566</v>
+        <v>0.5947166685304524</v>
       </c>
       <c r="K19">
-        <v>0.546731144166074</v>
+        <v>1.608904238810794</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.184289098465399</v>
+        <v>1.614762858719786</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5167682014573813</v>
+        <v>1.483953552607858</v>
       </c>
       <c r="C20">
-        <v>0.08406876499142868</v>
+        <v>0.2689829300707345</v>
       </c>
       <c r="D20">
-        <v>0.3439056501011919</v>
+        <v>0.5486148646320146</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.432948909889035</v>
+        <v>0.9220336539579961</v>
       </c>
       <c r="G20">
-        <v>0.002451789403235763</v>
+        <v>0.0007991721882232381</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6509247389752204</v>
+        <v>0.2729670248715941</v>
       </c>
       <c r="J20">
-        <v>0.3920859190225485</v>
+        <v>0.6173174778764974</v>
       </c>
       <c r="K20">
-        <v>0.5656350714029372</v>
+        <v>1.67170148909392</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.177787414184934</v>
+        <v>1.626915147125231</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.573268127131854</v>
+        <v>1.672354346821749</v>
       </c>
       <c r="C21">
-        <v>0.09412529894007093</v>
+        <v>0.3026421343448931</v>
       </c>
       <c r="D21">
-        <v>0.3612347395213646</v>
+        <v>0.6172695555312089</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.435017814668441</v>
+        <v>0.9822002627721247</v>
       </c>
       <c r="G21">
-        <v>0.002448983575443187</v>
+        <v>0.000794373415946057</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6433223532289105</v>
+        <v>0.2683696488243079</v>
       </c>
       <c r="J21">
-        <v>0.4097360710833584</v>
+        <v>0.6944109705455332</v>
       </c>
       <c r="K21">
-        <v>0.6291203142452559</v>
+        <v>1.883425456967416</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.1581689514083</v>
+        <v>1.674049576651697</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6101824781230221</v>
+        <v>1.796048410477397</v>
       </c>
       <c r="C22">
-        <v>0.1006878053906632</v>
+        <v>0.3247596301369242</v>
       </c>
       <c r="D22">
-        <v>0.3726693305326023</v>
+        <v>0.6626477815915734</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.437096781423719</v>
+        <v>1.02380171393672</v>
       </c>
       <c r="G22">
-        <v>0.002447218672056063</v>
+        <v>0.0007912886996810047</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.638686847405765</v>
+        <v>0.2663143323420805</v>
       </c>
       <c r="J22">
-        <v>0.4214546775760226</v>
+        <v>0.7457541483904606</v>
       </c>
       <c r="K22">
-        <v>0.6705860692972578</v>
+        <v>2.022452195029189</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.147008330825315</v>
+        <v>1.709884505676513</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5904818756000907</v>
+        <v>1.729972981494058</v>
       </c>
       <c r="C23">
-        <v>0.09718621922451121</v>
+        <v>0.3129428719547036</v>
       </c>
       <c r="D23">
-        <v>0.3665565473622507</v>
+        <v>0.6383784953534359</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.435920670518428</v>
+        <v>1.001378864788293</v>
       </c>
       <c r="G23">
-        <v>0.002448154350818158</v>
+        <v>0.0007929305319455396</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6411303983731678</v>
+        <v>0.2673206976451574</v>
       </c>
       <c r="J23">
-        <v>0.4151834657880329</v>
+        <v>0.7182573026797172</v>
       </c>
       <c r="K23">
-        <v>0.6484575836000204</v>
+        <v>1.948184186928728</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.152812845360245</v>
+        <v>1.690276423976798</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5158445921435941</v>
+        <v>1.480882442359587</v>
       </c>
       <c r="C24">
-        <v>0.08390423375379896</v>
+        <v>0.2684345160731993</v>
       </c>
       <c r="D24">
-        <v>0.3436242667814042</v>
+        <v>0.5475005539780113</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.432927359674835</v>
+        <v>0.9210863930204027</v>
       </c>
       <c r="G24">
-        <v>0.00245183642965313</v>
+        <v>0.0007992515308982885</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6510546131426658</v>
+        <v>0.2730573850740754</v>
       </c>
       <c r="J24">
-        <v>0.3918005278254952</v>
+        <v>0.6160722261994636</v>
       </c>
       <c r="K24">
-        <v>0.5645970592175615</v>
+        <v>1.668250462564913</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.178136084975591</v>
+        <v>1.626224895852801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4353081599592485</v>
+        <v>1.214045575489791</v>
       </c>
       <c r="C25">
-        <v>0.06953745554552881</v>
+        <v>0.2208128093683825</v>
       </c>
       <c r="D25">
-        <v>0.3193610822422386</v>
+        <v>0.4513207941276107</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.432816646127776</v>
+        <v>0.8432375439433741</v>
       </c>
       <c r="G25">
-        <v>0.002456105661860402</v>
+        <v>0.000806308159032167</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.663186792600321</v>
+        <v>0.282967466156073</v>
       </c>
       <c r="J25">
-        <v>0.3673639994935485</v>
+        <v>0.5093628182379746</v>
       </c>
       <c r="K25">
-        <v>0.4740536121243508</v>
+        <v>1.368431392637632</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.212571124365951</v>
+        <v>1.576640424532286</v>
       </c>
     </row>
   </sheetData>
